--- a/data/trans_bre/P30_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P30_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,62</t>
+          <t>-6,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-23,32%</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,86%</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>-23,4%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-10,0%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>-28,2%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-8,75%</t>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-18,88%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-8,73%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-19,16%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,64; -0,28</t>
+          <t>-9,35; -0,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 1,86</t>
+          <t>-6,96; 2,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,19; -1,63</t>
+          <t>-11,49; -2,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 2,55</t>
+          <t>-9,89; 0,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-39,36; -1,29</t>
+          <t>-7,25; 2,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,18; 9,45</t>
+          <t>-11,29; -1,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-42,12; -8,25</t>
+          <t>-39,55; -5,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 9,71</t>
+          <t>-26,97; 11,17</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-43,68; -10,7</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-35,88; 1,57</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-23,21; 8,06</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-31,66; -5,45</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-4,23</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,86</t>
+          <t>-5,32</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,63%</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,8%</t>
+          <t>-9,07</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-25,45%</t>
+          <t>-4,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>-17,91%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-23,51%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-16,46%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>28,57%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-30,65%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 3,78</t>
+          <t>-7,11; 5,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 0,44</t>
+          <t>-10,43; 0,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 0,12</t>
+          <t>-11,72; 0,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 14,51</t>
+          <t>-10,76; 3,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,61; 21,25</t>
+          <t>-2,68; 14,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,95; 2,51</t>
+          <t>-17,03; -0,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,28; 1,44</t>
+          <t>-29,4; 31,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 90,24</t>
+          <t>-38,41; 4,62</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-43,71; 6,51</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-38,08; 17,59</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-10,54; 88,03</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-50,92; -2,32</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-12,85</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-16,15%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,46%</t>
+          <t>-14,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-4,21%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-42,52%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 6,59</t>
+          <t>-12,29; 6,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 9,67</t>
+          <t>-8,01; 9,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 7,6</t>
+          <t>-9,16; 6,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-26,3; 0,2</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-50,8; 66,03</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,19; 77,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-45,4; 68,91</t>
+          <t>-54,25; 50,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-35,48; 77,14</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-47,4; 60,22</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-67,6; 2,41</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>-5,39</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-5,4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>-0,47</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-17,85%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,06%</t>
+          <t>-6,85</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-25,01%</t>
+          <t>-15,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>-11,66%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-24,22%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-21,33%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>-1,8%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-21,33%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,3; -0,07</t>
+          <t>-6,23; 0,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 0,14</t>
+          <t>-6,12; 0,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,01; -2,12</t>
+          <t>-8,57; -1,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 3,44</t>
+          <t>-9,48; -1,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,23; -0,28</t>
+          <t>-4,66; 3,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,67; 0,75</t>
+          <t>-11,35; -2,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,56; -10,09</t>
+          <t>-27,48; 1,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 14,57</t>
+          <t>-24,54; 3,28</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-35,45; -8,95</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-33,58; -7,02</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-15,92; 15,36</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-33,02; -9,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P30_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P30_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-5,02</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,28</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-6,68</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-4,66</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-2,44</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-6,3</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-23,4%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-10,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-28,2%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-18,88%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-8,73%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-19,16%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-5.100635354418193</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.132410387092187</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-6.893306307274111</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-4.509838083940782</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-2.443023798712835</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-6.315158753268407</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.2389724135072822</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.09554201253693308</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.2881427492435516</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.1833110177318474</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.08732534963978419</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.1918115658415172</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,35; -0,98</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,96; 2,21</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-11,49; -2,24</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-9,89; 0,35</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-7,25; 2,05</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-11,29; -1,91</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-39,55; -5,14</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-26,97; 11,17</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-43,68; -10,7</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-35,88; 1,57</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-23,21; 8,06</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-31,66; -5,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.609595069213238</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.738811992914741</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-12.02198626098709</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-9.893383051741669</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-7.246326198518262</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-11.24681744573762</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4042279005703759</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2666996964852211</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.445067185669643</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.3556374913018863</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.2320577802285229</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.3123266925506034</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-1.237298623864795</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.34190300812048</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-2.415768848937404</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.3828946551109751</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2.053691840176999</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-1.749922413417804</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>-0.06018499366948682</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.1212896737521518</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-0.1147108753568248</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.0174796390021958</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.08058631203659754</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>-0.05340428940480199</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,89</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,23</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-5,32</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-4,03</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,84</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-9,07</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-4,39%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-17,91%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-23,51%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-16,46%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>28,57%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-30,65%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,11; 5,31</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,43; 0,97</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-11,72; 0,8</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-10,76; 3,37</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,68; 14,17</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-17,03; -0,88</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-29,4; 31,86</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-38,41; 4,62</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-43,71; 6,51</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-38,08; 17,59</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-10,54; 88,03</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-50,92; -2,32</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.144229905353261</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.903267021381344</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-5.544939987802314</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-4.762579695793797</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>5.841812670538321</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-9.338973883725401</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.05632249453350885</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.20259593791291</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.2438078730606144</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.1915615757045022</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.2856778220446176</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.3133125260608595</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,45</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,64</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-12,85</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-14,36%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,71%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-4,21%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-42,52%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.683670934270088</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-11.76030314098118</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-11.7709778279166</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-11.18929041128197</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-2.67770330074669</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-17.46860113069367</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3182461492530794</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4159026452042925</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.4404624083704128</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.4049345684221222</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.1054184941601884</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.5130489645071118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,29; 6,34</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,01; 9,69</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,16; 6,99</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-26,3; 0,2</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-54,25; 50,78</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-35,48; 77,14</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-47,4; 60,22</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-67,6; 2,41</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.667310864529075</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.3762403949961424</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3842162603368642</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.99541126115393</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>14.17136711333068</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-1.429192983325075</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2939600176417728</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.01788498036051542</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.03761240973234761</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.09386280081730039</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.8803112898476279</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>-0.03088999529206619</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-3,08</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,61</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-5,39</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-5,4</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-6,85</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-15,08%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-11,66%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-24,22%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-21,33%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-1,8%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-21,33%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.122486396026939</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.7304206487443121</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.5660887376775309</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-13.44195513400778</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.07205970372902111</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.04255054595511207</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.03712379012264597</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.4425049100644542</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,23; 0,29</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-6,12; 0,56</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-8,57; -1,79</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-9,48; -1,67</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-4,66; 3,58</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-11,35; -2,8</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-27,48; 1,57</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-24,54; 3,28</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-35,45; -8,95</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-33,58; -7,02</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-15,92; 15,36</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-33,02; -9,11</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.08855371660276</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.470322124315757</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.931580679332182</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-27.01855395680419</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.5091251082219955</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3771157914993704</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4698171315727779</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.6846666829926827</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.744748733443302</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.081093256500424</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.330885951842643</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-0.3239061121795246</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.6480887098787195</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.724230312774908</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.6634951909022866</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>-0.005063891141451535</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-3.058003546796059</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.849450020977801</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-5.566973571293868</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-5.679132246547653</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.4699743608418516</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-6.921241032776387</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1511883711349384</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1269821797187343</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.2485962580774203</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.2234582466289203</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.01796111810877336</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.2151600189051848</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.090564279523507</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-6.260527448281891</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-8.72421690595376</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-9.617252572629493</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-4.662285032433416</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-11.34815040291909</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2772113629434464</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.247022591755968</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3561065192588084</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.3426476850151177</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.1591920857164166</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.3312176656300212</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.363639424063665</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.4311808980098578</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-2.020103932477983</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-1.937952254737903</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.576507267423624</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-2.87048776633885</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.02051239387635527</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.02510384766451545</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.09693476669905371</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>-0.08219794273585443</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.1536174659007929</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>-0.09433188282938471</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
